--- a/Copy of Award_List_OOP_2023_BMED_SECOND_SEMESTER.xlsx
+++ b/Copy of Award_List_OOP_2023_BMED_SECOND_SEMESTER.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="153">
   <si>
     <t>Balochistan University of Engineering and Technology Khuzdar</t>
   </si>
@@ -483,6 +483,90 @@
   </si>
   <si>
     <t>Roll Number</t>
+  </si>
+  <si>
+    <t>22BME01</t>
+  </si>
+  <si>
+    <t>22BME02</t>
+  </si>
+  <si>
+    <t>22BME03</t>
+  </si>
+  <si>
+    <t>22BME04</t>
+  </si>
+  <si>
+    <t>22BME05</t>
+  </si>
+  <si>
+    <t>22BME06</t>
+  </si>
+  <si>
+    <t>22BME07</t>
+  </si>
+  <si>
+    <t>22BME08</t>
+  </si>
+  <si>
+    <t>22BME09</t>
+  </si>
+  <si>
+    <t>22BME10</t>
+  </si>
+  <si>
+    <t>22BME11</t>
+  </si>
+  <si>
+    <t>22BME12</t>
+  </si>
+  <si>
+    <t>22BME14</t>
+  </si>
+  <si>
+    <t>22BME15</t>
+  </si>
+  <si>
+    <t>22BME16</t>
+  </si>
+  <si>
+    <t>22BME17</t>
+  </si>
+  <si>
+    <t>22BME18</t>
+  </si>
+  <si>
+    <t>22BME19</t>
+  </si>
+  <si>
+    <t>22BME21</t>
+  </si>
+  <si>
+    <t>22BME22</t>
+  </si>
+  <si>
+    <t>22BME24</t>
+  </si>
+  <si>
+    <t>22BME25</t>
+  </si>
+  <si>
+    <t>22BME26</t>
+  </si>
+  <si>
+    <t>22BME27</t>
+  </si>
+  <si>
+    <t>22BME29</t>
+  </si>
+  <si>
+    <t>22BME31</t>
+  </si>
+  <si>
+    <t>22BME32</t>
+  </si>
+  <si>
+    <t>22BME33</t>
   </si>
 </sst>
 </file>
@@ -1503,6 +1587,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1521,20 +1623,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1551,53 +1686,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1629,11 +1722,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1656,33 +1770,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1697,9 +1784,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2189,270 +2273,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
+      <c r="A1" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="3" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="5" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
     </row>
     <row r="7" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>1</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
     </row>
     <row r="9" spans="1:10" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>3</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>4</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>5</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="123"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129"/>
     </row>
     <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>6</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>7</v>
       </c>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>8</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>9</v>
       </c>
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>10</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="129"/>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>11</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="123"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="129"/>
     </row>
     <row r="18" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>12</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="123"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>13</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="123"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
         <v>14</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="126"/>
     </row>
     <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
@@ -2462,13 +2546,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B9:J9"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B11:J11"/>
@@ -2479,6 +2556,13 @@
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2510,44 +2594,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
     </row>
     <row r="3" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="19"/>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="145" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
@@ -2560,28 +2644,28 @@
       <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="144">
+      <c r="E4" s="140">
         <v>2023</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
     </row>
     <row r="6" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
@@ -2594,32 +2678,32 @@
       <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
     </row>
     <row r="7" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="147"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="146">
+      <c r="G7" s="142">
         <v>3332634843</v>
       </c>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
     </row>
     <row r="8" spans="1:34" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
@@ -2633,24 +2717,24 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="134"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="136"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="66"/>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="141" t="s">
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="137" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="135"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="137"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="50"/>
       <c r="E10" s="38">
         <v>1</v>
@@ -2660,15 +2744,15 @@
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="142"/>
+      <c r="I10" s="138"/>
     </row>
     <row r="11" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="67"/>
       <c r="B11" s="41"/>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="130"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="68">
         <v>5</v>
       </c>
@@ -2684,10 +2768,10 @@
     <row r="12" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="130"/>
+      <c r="D12" s="147"/>
       <c r="E12" s="38">
         <v>1</v>
       </c>
@@ -2701,10 +2785,10 @@
     <row r="13" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="67"/>
       <c r="B13" s="41"/>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="130"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="38">
         <v>2</v>
       </c>
@@ -2718,10 +2802,10 @@
     <row r="14" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="74"/>
       <c r="B14" s="75"/>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="132"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
       <c r="G14" s="69"/>
@@ -2795,13 +2879,13 @@
       <c r="D15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="133" t="s">
+      <c r="E15" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
       <c r="M15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="U15" s="37"/>
@@ -4741,6 +4825,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E15:I15"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C9:C10"/>
@@ -4754,11 +4843,6 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E15:I15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formula" error="Entering data in this cell may cause error in calculation. " promptTitle="Formula" prompt="This cell contains formula, kindly do not enter any value in this cell." sqref="I16:I43">
@@ -4782,7 +4866,7 @@
   <dimension ref="A1:AK48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C15" sqref="C15:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -4797,52 +4881,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
+      <c r="A1" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:36" ht="19" x14ac:dyDescent="0.35">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
     </row>
     <row r="3" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="161" t="str">
+      <c r="C3" s="152" t="str">
         <f>'Mid Term Award'!$C$3</f>
         <v>BE BIOMEDICAL ENGINEERING</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
@@ -4857,56 +4941,56 @@
       <c r="E4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="145">
+      <c r="F4" s="141">
         <f>'Mid Term Award'!$E$4</f>
         <v>2023</v>
       </c>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
     </row>
     <row r="5" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="145" t="str">
+      <c r="C5" s="141" t="str">
         <f>'Mid Term Award'!$C$5</f>
         <v>Object Oriented Programming</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
     </row>
     <row r="6" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="157" t="str">
+      <c r="C6" s="160" t="str">
         <f>'Mid Term Award'!$C$6</f>
         <v>3+1</v>
       </c>
-      <c r="D6" s="157"/>
+      <c r="D6" s="160"/>
       <c r="E6" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="157" t="str">
+      <c r="H6" s="160" t="str">
         <f>'Mid Term Award'!$E$6</f>
         <v>CS-125</v>
       </c>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:36" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4914,46 +4998,46 @@
         <v>29</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="159" t="str">
+      <c r="C7" s="162" t="str">
         <f>'Mid Term Award'!$C$7</f>
         <v>Dr. Wazir Muhammad</v>
       </c>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
       <c r="G7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="22"/>
-      <c r="I7" s="158">
+      <c r="I7" s="161">
         <f>'Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="150"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="140" t="s">
+      <c r="A8" s="153"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
       <c r="K8" s="51" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
+      <c r="A9" s="155"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="38">
         <v>1</v>
       </c>
@@ -5109,15 +5193,15 @@
       <c r="D14" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="154" t="s">
+      <c r="E14" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="156"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="159"/>
       <c r="O14" s="35"/>
       <c r="S14" s="35"/>
       <c r="W14" s="35"/>
@@ -5133,10 +5217,10 @@
         <v>63</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="D15" s="33"/>
-      <c r="E15" s="183">
+      <c r="E15" s="118">
         <v>8</v>
       </c>
       <c r="F15" s="108"/>
@@ -5229,10 +5313,10 @@
         <v>65</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="183">
+      <c r="E16" s="118">
         <v>9</v>
       </c>
       <c r="F16" s="108"/>
@@ -5325,10 +5409,10 @@
         <v>67</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="D17" s="100"/>
-      <c r="E17" s="183">
+      <c r="E17" s="118">
         <v>9</v>
       </c>
       <c r="F17" s="108"/>
@@ -5421,10 +5505,10 @@
         <v>69</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D18" s="101"/>
-      <c r="E18" s="183">
+      <c r="E18" s="118">
         <v>8</v>
       </c>
       <c r="F18" s="108"/>
@@ -5517,10 +5601,10 @@
         <v>71</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="D19" s="100"/>
-      <c r="E19" s="183">
+      <c r="E19" s="118">
         <v>8</v>
       </c>
       <c r="F19" s="108"/>
@@ -5613,10 +5697,10 @@
         <v>73</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D20" s="101"/>
-      <c r="E20" s="183">
+      <c r="E20" s="118">
         <v>8</v>
       </c>
       <c r="F20" s="108"/>
@@ -5709,10 +5793,10 @@
         <v>75</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="D21" s="100"/>
-      <c r="E21" s="183">
+      <c r="E21" s="118">
         <v>9</v>
       </c>
       <c r="F21" s="108"/>
@@ -5805,10 +5889,10 @@
         <v>77</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="D22" s="101"/>
-      <c r="E22" s="183">
+      <c r="E22" s="118">
         <v>9</v>
       </c>
       <c r="F22" s="108"/>
@@ -5901,10 +5985,10 @@
         <v>79</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D23" s="100"/>
-      <c r="E23" s="183">
+      <c r="E23" s="118">
         <v>8</v>
       </c>
       <c r="F23" s="108"/>
@@ -5997,10 +6081,10 @@
         <v>81</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D24" s="101"/>
-      <c r="E24" s="183">
+      <c r="E24" s="118">
         <v>8</v>
       </c>
       <c r="F24" s="108"/>
@@ -6093,10 +6177,10 @@
         <v>83</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D25" s="100"/>
-      <c r="E25" s="183">
+      <c r="E25" s="118">
         <v>8</v>
       </c>
       <c r="F25" s="108"/>
@@ -6189,10 +6273,10 @@
         <v>85</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="D26" s="101"/>
-      <c r="E26" s="183">
+      <c r="E26" s="118">
         <v>8</v>
       </c>
       <c r="F26" s="108"/>
@@ -6285,10 +6369,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="D27" s="100"/>
-      <c r="E27" s="183">
+      <c r="E27" s="118">
         <v>8</v>
       </c>
       <c r="F27" s="108"/>
@@ -6381,10 +6465,10 @@
         <v>89</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D28" s="101"/>
-      <c r="E28" s="183">
+      <c r="E28" s="118">
         <v>8</v>
       </c>
       <c r="F28" s="108"/>
@@ -6477,10 +6561,10 @@
         <v>91</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D29" s="100"/>
-      <c r="E29" s="183">
+      <c r="E29" s="118">
         <v>8</v>
       </c>
       <c r="F29" s="108"/>
@@ -6573,10 +6657,10 @@
         <v>93</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="D30" s="101"/>
-      <c r="E30" s="183">
+      <c r="E30" s="118">
         <v>8</v>
       </c>
       <c r="F30" s="108"/>
@@ -6669,10 +6753,10 @@
         <v>95</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="D31" s="100"/>
-      <c r="E31" s="183">
+      <c r="E31" s="118">
         <v>8</v>
       </c>
       <c r="F31" s="108"/>
@@ -6765,10 +6849,10 @@
         <v>97</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="D32" s="101"/>
-      <c r="E32" s="183">
+      <c r="E32" s="118">
         <v>9</v>
       </c>
       <c r="F32" s="108"/>
@@ -6861,10 +6945,10 @@
         <v>69</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="D33" s="100"/>
-      <c r="E33" s="183">
+      <c r="E33" s="118">
         <v>8</v>
       </c>
       <c r="F33" s="108"/>
@@ -6957,10 +7041,10 @@
         <v>100</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="D34" s="101"/>
-      <c r="E34" s="183">
+      <c r="E34" s="118">
         <v>8</v>
       </c>
       <c r="F34" s="108"/>
@@ -7053,10 +7137,10 @@
         <v>102</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D35" s="100"/>
-      <c r="E35" s="183">
+      <c r="E35" s="118">
         <v>9</v>
       </c>
       <c r="F35" s="108"/>
@@ -7149,10 +7233,10 @@
         <v>104</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D36" s="101"/>
-      <c r="E36" s="183">
+      <c r="E36" s="118">
         <v>8</v>
       </c>
       <c r="F36" s="108"/>
@@ -7245,10 +7329,10 @@
         <v>106</v>
       </c>
       <c r="C37" s="98" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D37" s="100"/>
-      <c r="E37" s="183">
+      <c r="E37" s="118">
         <v>8</v>
       </c>
       <c r="F37" s="108"/>
@@ -7341,10 +7425,10 @@
         <v>108</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D38" s="101"/>
-      <c r="E38" s="183">
+      <c r="E38" s="118">
         <v>8</v>
       </c>
       <c r="F38" s="108"/>
@@ -7437,10 +7521,10 @@
         <v>110</v>
       </c>
       <c r="C39" s="98" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="D39" s="100"/>
-      <c r="E39" s="183">
+      <c r="E39" s="118">
         <v>8</v>
       </c>
       <c r="F39" s="82"/>
@@ -7465,10 +7549,10 @@
         <v>112</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D40" s="101"/>
-      <c r="E40" s="183">
+      <c r="E40" s="118">
         <v>8</v>
       </c>
       <c r="F40" s="82"/>
@@ -7493,10 +7577,10 @@
         <v>114</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="D41" s="100"/>
-      <c r="E41" s="183">
+      <c r="E41" s="118">
         <v>8</v>
       </c>
       <c r="F41" s="82"/>
@@ -7521,10 +7605,10 @@
         <v>116</v>
       </c>
       <c r="C42" s="98" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="D42" s="101"/>
-      <c r="E42" s="183">
+      <c r="E42" s="118">
         <v>8</v>
       </c>
       <c r="F42" s="82"/>
@@ -7568,11 +7652,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C5:K5"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E14:K14"/>
@@ -7580,6 +7659,11 @@
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C5:K5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="A3:K7 D15:D38">
@@ -7606,8 +7690,8 @@
   </sheetPr>
   <dimension ref="A1:AT50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -7624,103 +7708,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
+      <c r="A1" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
     </row>
     <row r="2" spans="1:45" ht="19" x14ac:dyDescent="0.35">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
     </row>
     <row r="3" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="146" t="str">
+      <c r="C3" s="142" t="str">
         <f>'Mid Term Award'!$C$3</f>
         <v>BE BIOMEDICAL ENGINEERING</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
     </row>
     <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="145" t="str">
+      <c r="C4" s="141" t="str">
         <f>'Mid Term Award'!$C$4</f>
         <v>2nd</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
       <c r="G4" s="24"/>
       <c r="H4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="149">
+      <c r="I4" s="145">
         <f>'Mid Term Award'!$E$4</f>
         <v>2023</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
     </row>
     <row r="5" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="145" t="str">
+      <c r="C5" s="141" t="str">
         <f>'Mid Term Award'!$C$5</f>
         <v>Object Oriented Programming</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
     </row>
     <row r="6" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
@@ -7737,83 +7821,83 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="157" t="str">
+      <c r="H6" s="160" t="str">
         <f>'Mid Term Award'!$E$6</f>
         <v>CS-125</v>
       </c>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
     </row>
     <row r="7" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="147" t="str">
+      <c r="C7" s="143" t="str">
         <f>'Mid Term Award'!$C$7</f>
         <v>Dr. Wazir Muhammad</v>
       </c>
-      <c r="D7" s="147"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="19"/>
-      <c r="G7" s="174">
+      <c r="G7" s="167">
         <f>'Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
     </row>
     <row r="8" spans="1:45" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
     </row>
     <row r="9" spans="1:45" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="176"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="169"/>
       <c r="D9" s="52"/>
-      <c r="E9" s="164" t="s">
+      <c r="E9" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="164" t="s">
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="166"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="176"/>
       <c r="M9" s="53" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="163"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="177"/>
+      <c r="A10" s="173"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="170"/>
       <c r="D10" s="54"/>
       <c r="E10" s="55">
         <v>1</v>
@@ -7867,10 +7951,10 @@
     <row r="12" spans="1:45" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A12" s="65"/>
       <c r="B12" s="65"/>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="171"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="63">
         <v>3</v>
       </c>
@@ -7888,10 +7972,10 @@
     <row r="13" spans="1:45" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="65"/>
       <c r="B13" s="65"/>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="171"/>
+      <c r="D13" s="164"/>
       <c r="E13" s="63">
         <v>5</v>
       </c>
@@ -7909,10 +7993,10 @@
     <row r="14" spans="1:45" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="171"/>
+      <c r="D14" s="164"/>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
       <c r="G14" s="38"/>
@@ -8008,16 +8092,16 @@
       <c r="D15" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="172" t="s">
+      <c r="E15" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="173"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="166"/>
       <c r="M15" s="114"/>
       <c r="P15" s="35"/>
       <c r="T15" s="35"/>
@@ -8036,7 +8120,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="32">
@@ -8160,7 +8244,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="32">
@@ -8283,8 +8367,8 @@
       <c r="B18" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="100" t="s">
-        <v>68</v>
+      <c r="C18" s="98" t="s">
+        <v>127</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="32">
@@ -8407,8 +8491,8 @@
       <c r="B19" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="101" t="s">
-        <v>70</v>
+      <c r="C19" s="98" t="s">
+        <v>128</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="32">
@@ -8531,8 +8615,8 @@
       <c r="B20" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="100" t="s">
-        <v>72</v>
+      <c r="C20" s="98" t="s">
+        <v>129</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="32">
@@ -8655,8 +8739,8 @@
       <c r="B21" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="101" t="s">
-        <v>74</v>
+      <c r="C21" s="98" t="s">
+        <v>130</v>
       </c>
       <c r="D21" s="98"/>
       <c r="E21" s="32">
@@ -8779,8 +8863,8 @@
       <c r="B22" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="100" t="s">
-        <v>76</v>
+      <c r="C22" s="98" t="s">
+        <v>131</v>
       </c>
       <c r="D22" s="98"/>
       <c r="E22" s="32">
@@ -8903,8 +8987,8 @@
       <c r="B23" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="101" t="s">
-        <v>78</v>
+      <c r="C23" s="98" t="s">
+        <v>132</v>
       </c>
       <c r="D23" s="98"/>
       <c r="E23" s="32">
@@ -9027,8 +9111,8 @@
       <c r="B24" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="100" t="s">
-        <v>80</v>
+      <c r="C24" s="98" t="s">
+        <v>133</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="32">
@@ -9151,8 +9235,8 @@
       <c r="B25" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="101" t="s">
-        <v>82</v>
+      <c r="C25" s="98" t="s">
+        <v>134</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="32">
@@ -9275,8 +9359,8 @@
       <c r="B26" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="100" t="s">
-        <v>84</v>
+      <c r="C26" s="98" t="s">
+        <v>135</v>
       </c>
       <c r="D26" s="98"/>
       <c r="E26" s="32">
@@ -9399,8 +9483,8 @@
       <c r="B27" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="101" t="s">
-        <v>86</v>
+      <c r="C27" s="98" t="s">
+        <v>136</v>
       </c>
       <c r="D27" s="98"/>
       <c r="E27" s="32">
@@ -9523,8 +9607,8 @@
       <c r="B28" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="100" t="s">
-        <v>88</v>
+      <c r="C28" s="98" t="s">
+        <v>137</v>
       </c>
       <c r="D28" s="98"/>
       <c r="E28" s="32">
@@ -9647,8 +9731,8 @@
       <c r="B29" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="101" t="s">
-        <v>90</v>
+      <c r="C29" s="98" t="s">
+        <v>138</v>
       </c>
       <c r="D29" s="98"/>
       <c r="E29" s="32">
@@ -9771,8 +9855,8 @@
       <c r="B30" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="100" t="s">
-        <v>92</v>
+      <c r="C30" s="98" t="s">
+        <v>139</v>
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="32">
@@ -9895,8 +9979,8 @@
       <c r="B31" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="101" t="s">
-        <v>94</v>
+      <c r="C31" s="98" t="s">
+        <v>140</v>
       </c>
       <c r="D31" s="98"/>
       <c r="E31" s="32">
@@ -10019,8 +10103,8 @@
       <c r="B32" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="100" t="s">
-        <v>96</v>
+      <c r="C32" s="98" t="s">
+        <v>141</v>
       </c>
       <c r="D32" s="98"/>
       <c r="E32" s="32">
@@ -10143,8 +10227,8 @@
       <c r="B33" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="101" t="s">
-        <v>98</v>
+      <c r="C33" s="98" t="s">
+        <v>142</v>
       </c>
       <c r="D33" s="98"/>
       <c r="E33" s="32">
@@ -10267,8 +10351,8 @@
       <c r="B34" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="100" t="s">
-        <v>99</v>
+      <c r="C34" s="98" t="s">
+        <v>143</v>
       </c>
       <c r="D34" s="98"/>
       <c r="E34" s="32">
@@ -10391,8 +10475,8 @@
       <c r="B35" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="101" t="s">
-        <v>101</v>
+      <c r="C35" s="98" t="s">
+        <v>144</v>
       </c>
       <c r="D35" s="98"/>
       <c r="E35" s="32">
@@ -10515,8 +10599,8 @@
       <c r="B36" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="100" t="s">
-        <v>103</v>
+      <c r="C36" s="98" t="s">
+        <v>145</v>
       </c>
       <c r="D36" s="98"/>
       <c r="E36" s="32">
@@ -10639,8 +10723,8 @@
       <c r="B37" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="101" t="s">
-        <v>105</v>
+      <c r="C37" s="98" t="s">
+        <v>146</v>
       </c>
       <c r="D37" s="98"/>
       <c r="E37" s="32">
@@ -10763,8 +10847,8 @@
       <c r="B38" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="100" t="s">
-        <v>107</v>
+      <c r="C38" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="D38" s="98"/>
       <c r="E38" s="32">
@@ -10887,8 +10971,8 @@
       <c r="B39" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="101" t="s">
-        <v>109</v>
+      <c r="C39" s="98" t="s">
+        <v>148</v>
       </c>
       <c r="D39" s="98"/>
       <c r="E39" s="32">
@@ -11011,8 +11095,8 @@
       <c r="B40" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="100" t="s">
-        <v>111</v>
+      <c r="C40" s="98" t="s">
+        <v>149</v>
       </c>
       <c r="D40" s="98"/>
       <c r="E40" s="32">
@@ -11047,8 +11131,8 @@
       <c r="B41" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="101" t="s">
-        <v>113</v>
+      <c r="C41" s="98" t="s">
+        <v>150</v>
       </c>
       <c r="D41" s="98"/>
       <c r="E41" s="32">
@@ -11083,8 +11167,8 @@
       <c r="B42" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="100" t="s">
-        <v>115</v>
+      <c r="C42" s="98" t="s">
+        <v>151</v>
       </c>
       <c r="D42" s="98"/>
       <c r="E42" s="32">
@@ -11119,8 +11203,8 @@
       <c r="B43" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="101" t="s">
-        <v>117</v>
+      <c r="C43" s="98" t="s">
+        <v>152</v>
       </c>
       <c r="D43" s="98"/>
       <c r="E43" s="32">
@@ -11176,12 +11260,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A8:M8"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="I4:M4"/>
@@ -11189,12 +11273,12 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="C3:M3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="M16:M39">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
@@ -11279,8 +11363,8 @@
   </sheetPr>
   <dimension ref="A1:AR68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:K9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -11297,55 +11381,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
+      <c r="A1" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
     </row>
     <row r="2" spans="1:43" ht="19" x14ac:dyDescent="0.35">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
     </row>
     <row r="3" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="146" t="str">
+      <c r="C3" s="142" t="str">
         <f>'Mid Term Award'!$C$3</f>
         <v>BE BIOMEDICAL ENGINEERING</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
     </row>
     <row r="4" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
@@ -11361,121 +11445,121 @@
         <v>10</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="182">
+      <c r="G4" s="183">
         <f>'Mid Term Award'!$E$4</f>
         <v>2023</v>
       </c>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
     </row>
     <row r="5" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="145" t="str">
+      <c r="C5" s="141" t="str">
         <f>'Mid Term Award'!$C$5</f>
         <v>Object Oriented Programming</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
     </row>
     <row r="6" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="148" t="str">
+      <c r="C6" s="144" t="str">
         <f>'Mid Term Award'!$C$6</f>
         <v>3+1</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
-      <c r="I6" s="148" t="str">
+      <c r="I6" s="144" t="str">
         <f>'Mid Term Award'!$E$6</f>
         <v>CS-125</v>
       </c>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
     </row>
     <row r="7" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="145" t="str">
+      <c r="C7" s="141" t="str">
         <f>'Mid Term Award'!$C$7</f>
         <v>Dr. Wazir Muhammad</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="22"/>
-      <c r="I7" s="175">
+      <c r="I7" s="168">
         <f>'Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
     </row>
     <row r="8" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
     </row>
     <row r="9" spans="1:43" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="179"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
       <c r="D9" s="83"/>
-      <c r="E9" s="181" t="s">
+      <c r="E9" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
       <c r="L9" s="77" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="180"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
+      <c r="A10" s="181"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
       <c r="D10" s="84"/>
       <c r="E10" s="78">
         <v>1</v>
@@ -11678,15 +11762,15 @@
       <c r="D15" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="178" t="s">
+      <c r="E15" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
       <c r="L15" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11707,7 +11791,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="D16" s="85"/>
       <c r="E16" s="85">
@@ -11733,7 +11817,7 @@
       </c>
       <c r="Q16" t="str">
         <f t="shared" ref="Q16:Q38" si="1">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="R16" t="e">
         <f>#REF!</f>
@@ -11745,7 +11829,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" ref="U16:U38" si="2">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="V16">
         <f>F$13</f>
@@ -11757,7 +11841,7 @@
       </c>
       <c r="Y16" t="str">
         <f t="shared" ref="Y16:Y38" si="3">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="Z16">
         <f>G$13</f>
@@ -11769,7 +11853,7 @@
       </c>
       <c r="AC16" t="str">
         <f t="shared" ref="AC16:AC38" si="4">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="AD16">
         <f>H$13</f>
@@ -11781,7 +11865,7 @@
       </c>
       <c r="AG16" t="str">
         <f t="shared" ref="AG16:AG38" si="5">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="AH16">
         <f>I$13</f>
@@ -11793,7 +11877,7 @@
       </c>
       <c r="AK16" t="str">
         <f t="shared" ref="AK16:AK38" si="6">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="AL16">
         <f>J$13</f>
@@ -11805,7 +11889,7 @@
       </c>
       <c r="AO16" t="str">
         <f t="shared" ref="AO16:AO38" si="7">$C16</f>
-        <v>23BME01</v>
+        <v>22BME01</v>
       </c>
       <c r="AP16">
         <f>K$13</f>
@@ -11824,7 +11908,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="85">
@@ -11850,7 +11934,7 @@
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="1"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="R17" t="e">
         <f>#REF!</f>
@@ -11862,7 +11946,7 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" si="2"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="V17">
         <f t="shared" ref="V17:V38" si="8">F$13</f>
@@ -11874,7 +11958,7 @@
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="3"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="Z17">
         <f t="shared" ref="Z17:Z38" si="9">G$13</f>
@@ -11886,7 +11970,7 @@
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="4"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="AD17">
         <f t="shared" ref="AD17:AD38" si="11">H$13</f>
@@ -11898,7 +11982,7 @@
       </c>
       <c r="AG17" t="str">
         <f t="shared" si="5"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="AH17">
         <f t="shared" ref="AH17:AH38" si="13">I$13</f>
@@ -11910,7 +11994,7 @@
       </c>
       <c r="AK17" t="str">
         <f t="shared" si="6"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="AL17">
         <f t="shared" ref="AL17:AL38" si="15">J$13</f>
@@ -11922,7 +12006,7 @@
       </c>
       <c r="AO17" t="str">
         <f t="shared" si="7"/>
-        <v>23BME02</v>
+        <v>22BME02</v>
       </c>
       <c r="AP17">
         <f t="shared" ref="AP17:AP38" si="17">K$13</f>
@@ -11941,7 +12025,7 @@
         <v>67</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="D18" s="85"/>
       <c r="E18" s="85">
@@ -11967,7 +12051,7 @@
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="1"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="R18" t="e">
         <f>#REF!</f>
@@ -11979,7 +12063,7 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" si="2"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
@@ -11991,7 +12075,7 @@
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="3"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="Z18">
         <f t="shared" si="9"/>
@@ -12003,7 +12087,7 @@
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="4"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="AD18">
         <f t="shared" si="11"/>
@@ -12015,7 +12099,7 @@
       </c>
       <c r="AG18" t="str">
         <f t="shared" si="5"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="AH18">
         <f t="shared" si="13"/>
@@ -12027,7 +12111,7 @@
       </c>
       <c r="AK18" t="str">
         <f t="shared" si="6"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="AL18">
         <f t="shared" si="15"/>
@@ -12039,7 +12123,7 @@
       </c>
       <c r="AO18" t="str">
         <f t="shared" si="7"/>
-        <v>23BME03</v>
+        <v>22BME03</v>
       </c>
       <c r="AP18">
         <f t="shared" si="17"/>
@@ -12058,7 +12142,7 @@
         <v>69</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D19" s="85"/>
       <c r="E19" s="85">
@@ -12084,7 +12168,7 @@
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="1"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="R19" t="e">
         <f>#REF!</f>
@@ -12096,7 +12180,7 @@
       </c>
       <c r="U19" t="str">
         <f t="shared" si="2"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
@@ -12108,7 +12192,7 @@
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="3"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="Z19">
         <f t="shared" si="9"/>
@@ -12120,7 +12204,7 @@
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="4"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="AD19">
         <f t="shared" si="11"/>
@@ -12132,7 +12216,7 @@
       </c>
       <c r="AG19" t="str">
         <f t="shared" si="5"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="AH19">
         <f t="shared" si="13"/>
@@ -12144,7 +12228,7 @@
       </c>
       <c r="AK19" t="str">
         <f t="shared" si="6"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="AL19">
         <f t="shared" si="15"/>
@@ -12156,7 +12240,7 @@
       </c>
       <c r="AO19" t="str">
         <f t="shared" si="7"/>
-        <v>23BME04</v>
+        <v>22BME04</v>
       </c>
       <c r="AP19">
         <f t="shared" si="17"/>
@@ -12175,7 +12259,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="D20" s="85"/>
       <c r="E20" s="85">
@@ -12201,7 +12285,7 @@
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="1"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="R20" t="e">
         <f>#REF!</f>
@@ -12213,7 +12297,7 @@
       </c>
       <c r="U20" t="str">
         <f t="shared" si="2"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
@@ -12225,7 +12309,7 @@
       </c>
       <c r="Y20" t="str">
         <f t="shared" si="3"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="Z20">
         <f t="shared" si="9"/>
@@ -12237,7 +12321,7 @@
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="4"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="AD20">
         <f t="shared" si="11"/>
@@ -12249,7 +12333,7 @@
       </c>
       <c r="AG20" t="str">
         <f t="shared" si="5"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="AH20">
         <f t="shared" si="13"/>
@@ -12261,7 +12345,7 @@
       </c>
       <c r="AK20" t="str">
         <f t="shared" si="6"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="AL20">
         <f t="shared" si="15"/>
@@ -12273,7 +12357,7 @@
       </c>
       <c r="AO20" t="str">
         <f t="shared" si="7"/>
-        <v>23BME05</v>
+        <v>22BME05</v>
       </c>
       <c r="AP20">
         <f t="shared" si="17"/>
@@ -12292,7 +12376,7 @@
         <v>73</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D21" s="85"/>
       <c r="E21" s="85">
@@ -12318,7 +12402,7 @@
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="1"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="R21" t="e">
         <f>#REF!</f>
@@ -12330,7 +12414,7 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" si="2"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
@@ -12342,7 +12426,7 @@
       </c>
       <c r="Y21" t="str">
         <f t="shared" si="3"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="Z21">
         <f t="shared" si="9"/>
@@ -12354,7 +12438,7 @@
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="4"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="AD21">
         <f t="shared" si="11"/>
@@ -12366,7 +12450,7 @@
       </c>
       <c r="AG21" t="str">
         <f t="shared" si="5"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="AH21">
         <f t="shared" si="13"/>
@@ -12378,7 +12462,7 @@
       </c>
       <c r="AK21" t="str">
         <f t="shared" si="6"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="AL21">
         <f t="shared" si="15"/>
@@ -12390,7 +12474,7 @@
       </c>
       <c r="AO21" t="str">
         <f t="shared" si="7"/>
-        <v>23BME06</v>
+        <v>22BME06</v>
       </c>
       <c r="AP21">
         <f t="shared" si="17"/>
@@ -12409,7 +12493,7 @@
         <v>75</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="D22" s="85"/>
       <c r="E22" s="85">
@@ -12435,7 +12519,7 @@
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="1"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="R22" t="e">
         <f>#REF!</f>
@@ -12447,7 +12531,7 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" si="2"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
@@ -12459,7 +12543,7 @@
       </c>
       <c r="Y22" t="str">
         <f t="shared" si="3"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="Z22">
         <f t="shared" si="9"/>
@@ -12471,7 +12555,7 @@
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="4"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="AD22">
         <f t="shared" si="11"/>
@@ -12483,7 +12567,7 @@
       </c>
       <c r="AG22" t="str">
         <f t="shared" si="5"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="AH22">
         <f t="shared" si="13"/>
@@ -12495,7 +12579,7 @@
       </c>
       <c r="AK22" t="str">
         <f t="shared" si="6"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="AL22">
         <f t="shared" si="15"/>
@@ -12507,7 +12591,7 @@
       </c>
       <c r="AO22" t="str">
         <f t="shared" si="7"/>
-        <v>23BME07</v>
+        <v>22BME07</v>
       </c>
       <c r="AP22">
         <f t="shared" si="17"/>
@@ -12526,7 +12610,7 @@
         <v>77</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="D23" s="85"/>
       <c r="E23" s="85">
@@ -12552,7 +12636,7 @@
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="1"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="R23" t="e">
         <f>#REF!</f>
@@ -12564,7 +12648,7 @@
       </c>
       <c r="U23" t="str">
         <f t="shared" si="2"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="V23">
         <f t="shared" si="8"/>
@@ -12576,7 +12660,7 @@
       </c>
       <c r="Y23" t="str">
         <f t="shared" si="3"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="Z23">
         <f t="shared" si="9"/>
@@ -12588,7 +12672,7 @@
       </c>
       <c r="AC23" t="str">
         <f t="shared" si="4"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="AD23">
         <f t="shared" si="11"/>
@@ -12600,7 +12684,7 @@
       </c>
       <c r="AG23" t="str">
         <f t="shared" si="5"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="AH23">
         <f t="shared" si="13"/>
@@ -12612,7 +12696,7 @@
       </c>
       <c r="AK23" t="str">
         <f t="shared" si="6"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="AL23">
         <f t="shared" si="15"/>
@@ -12624,7 +12708,7 @@
       </c>
       <c r="AO23" t="str">
         <f t="shared" si="7"/>
-        <v>23BME08</v>
+        <v>22BME08</v>
       </c>
       <c r="AP23">
         <f t="shared" si="17"/>
@@ -12643,7 +12727,7 @@
         <v>79</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D24" s="85"/>
       <c r="E24" s="85">
@@ -12669,7 +12753,7 @@
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="1"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="R24" t="e">
         <f>#REF!</f>
@@ -12681,7 +12765,7 @@
       </c>
       <c r="U24" t="str">
         <f t="shared" si="2"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="V24">
         <f t="shared" si="8"/>
@@ -12693,7 +12777,7 @@
       </c>
       <c r="Y24" t="str">
         <f t="shared" si="3"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="Z24">
         <f t="shared" si="9"/>
@@ -12705,7 +12789,7 @@
       </c>
       <c r="AC24" t="str">
         <f t="shared" si="4"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="AD24">
         <f t="shared" si="11"/>
@@ -12717,7 +12801,7 @@
       </c>
       <c r="AG24" t="str">
         <f t="shared" si="5"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="AH24">
         <f t="shared" si="13"/>
@@ -12729,7 +12813,7 @@
       </c>
       <c r="AK24" t="str">
         <f t="shared" si="6"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="AL24">
         <f t="shared" si="15"/>
@@ -12741,7 +12825,7 @@
       </c>
       <c r="AO24" t="str">
         <f t="shared" si="7"/>
-        <v>23BME09</v>
+        <v>22BME09</v>
       </c>
       <c r="AP24">
         <f t="shared" si="17"/>
@@ -12760,7 +12844,7 @@
         <v>81</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D25" s="85"/>
       <c r="E25" s="85">
@@ -12786,7 +12870,7 @@
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="1"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="R25" t="e">
         <f>#REF!</f>
@@ -12798,7 +12882,7 @@
       </c>
       <c r="U25" t="str">
         <f t="shared" si="2"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="V25">
         <f t="shared" si="8"/>
@@ -12810,7 +12894,7 @@
       </c>
       <c r="Y25" t="str">
         <f t="shared" si="3"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="Z25">
         <f t="shared" si="9"/>
@@ -12822,7 +12906,7 @@
       </c>
       <c r="AC25" t="str">
         <f t="shared" si="4"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="AD25">
         <f t="shared" si="11"/>
@@ -12834,7 +12918,7 @@
       </c>
       <c r="AG25" t="str">
         <f t="shared" si="5"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="AH25">
         <f t="shared" si="13"/>
@@ -12846,7 +12930,7 @@
       </c>
       <c r="AK25" t="str">
         <f t="shared" si="6"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="AL25">
         <f t="shared" si="15"/>
@@ -12858,7 +12942,7 @@
       </c>
       <c r="AO25" t="str">
         <f t="shared" si="7"/>
-        <v>23BME10</v>
+        <v>22BME10</v>
       </c>
       <c r="AP25">
         <f t="shared" si="17"/>
@@ -12877,7 +12961,7 @@
         <v>83</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D26" s="85"/>
       <c r="E26" s="34">
@@ -12903,7 +12987,7 @@
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="1"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="R26" t="e">
         <f>#REF!</f>
@@ -12915,7 +12999,7 @@
       </c>
       <c r="U26" t="str">
         <f t="shared" si="2"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="V26">
         <f t="shared" si="8"/>
@@ -12927,7 +13011,7 @@
       </c>
       <c r="Y26" t="str">
         <f t="shared" si="3"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="Z26">
         <f t="shared" si="9"/>
@@ -12939,7 +13023,7 @@
       </c>
       <c r="AC26" t="str">
         <f t="shared" si="4"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="AD26">
         <f t="shared" si="11"/>
@@ -12951,7 +13035,7 @@
       </c>
       <c r="AG26" t="str">
         <f t="shared" si="5"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="AH26">
         <f t="shared" si="13"/>
@@ -12963,7 +13047,7 @@
       </c>
       <c r="AK26" t="str">
         <f t="shared" si="6"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="AL26">
         <f t="shared" si="15"/>
@@ -12975,7 +13059,7 @@
       </c>
       <c r="AO26" t="str">
         <f t="shared" si="7"/>
-        <v>23BME11</v>
+        <v>22BME11</v>
       </c>
       <c r="AP26">
         <f t="shared" si="17"/>
@@ -12994,7 +13078,7 @@
         <v>85</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="D27" s="85"/>
       <c r="E27" s="34">
@@ -13020,7 +13104,7 @@
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="1"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="R27" t="e">
         <f>#REF!</f>
@@ -13032,7 +13116,7 @@
       </c>
       <c r="U27" t="str">
         <f t="shared" si="2"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="V27">
         <f t="shared" si="8"/>
@@ -13044,7 +13128,7 @@
       </c>
       <c r="Y27" t="str">
         <f t="shared" si="3"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="Z27">
         <f t="shared" si="9"/>
@@ -13056,7 +13140,7 @@
       </c>
       <c r="AC27" t="str">
         <f t="shared" si="4"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="AD27">
         <f t="shared" si="11"/>
@@ -13068,7 +13152,7 @@
       </c>
       <c r="AG27" t="str">
         <f t="shared" si="5"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="AH27">
         <f t="shared" si="13"/>
@@ -13080,7 +13164,7 @@
       </c>
       <c r="AK27" t="str">
         <f t="shared" si="6"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="AL27">
         <f t="shared" si="15"/>
@@ -13092,7 +13176,7 @@
       </c>
       <c r="AO27" t="str">
         <f t="shared" si="7"/>
-        <v>23BME12</v>
+        <v>22BME12</v>
       </c>
       <c r="AP27">
         <f t="shared" si="17"/>
@@ -13111,7 +13195,7 @@
         <v>87</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="D28" s="85"/>
       <c r="E28" s="34">
@@ -13137,7 +13221,7 @@
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="1"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="R28" t="e">
         <f>#REF!</f>
@@ -13149,7 +13233,7 @@
       </c>
       <c r="U28" t="str">
         <f t="shared" si="2"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="V28">
         <f t="shared" si="8"/>
@@ -13161,7 +13245,7 @@
       </c>
       <c r="Y28" t="str">
         <f t="shared" si="3"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="Z28">
         <f t="shared" si="9"/>
@@ -13173,7 +13257,7 @@
       </c>
       <c r="AC28" t="str">
         <f t="shared" si="4"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="AD28">
         <f t="shared" si="11"/>
@@ -13185,7 +13269,7 @@
       </c>
       <c r="AG28" t="str">
         <f t="shared" si="5"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="AH28">
         <f t="shared" si="13"/>
@@ -13197,7 +13281,7 @@
       </c>
       <c r="AK28" t="str">
         <f t="shared" si="6"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="AL28">
         <f t="shared" si="15"/>
@@ -13209,7 +13293,7 @@
       </c>
       <c r="AO28" t="str">
         <f t="shared" si="7"/>
-        <v>23BME14</v>
+        <v>22BME14</v>
       </c>
       <c r="AP28">
         <f t="shared" si="17"/>
@@ -13228,7 +13312,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D29" s="85"/>
       <c r="E29" s="34">
@@ -13254,7 +13338,7 @@
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="1"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="R29" t="e">
         <f>#REF!</f>
@@ -13266,7 +13350,7 @@
       </c>
       <c r="U29" t="str">
         <f t="shared" si="2"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="V29">
         <f t="shared" si="8"/>
@@ -13278,7 +13362,7 @@
       </c>
       <c r="Y29" t="str">
         <f t="shared" si="3"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="Z29">
         <f t="shared" si="9"/>
@@ -13290,7 +13374,7 @@
       </c>
       <c r="AC29" t="str">
         <f t="shared" si="4"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="AD29">
         <f t="shared" si="11"/>
@@ -13302,7 +13386,7 @@
       </c>
       <c r="AG29" t="str">
         <f t="shared" si="5"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="AH29">
         <f t="shared" si="13"/>
@@ -13314,7 +13398,7 @@
       </c>
       <c r="AK29" t="str">
         <f t="shared" si="6"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="AL29">
         <f t="shared" si="15"/>
@@ -13326,7 +13410,7 @@
       </c>
       <c r="AO29" t="str">
         <f t="shared" si="7"/>
-        <v>23BME15</v>
+        <v>22BME15</v>
       </c>
       <c r="AP29">
         <f t="shared" si="17"/>
@@ -13345,7 +13429,7 @@
         <v>91</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D30" s="85"/>
       <c r="E30" s="34">
@@ -13371,7 +13455,7 @@
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="1"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="R30" t="e">
         <f>#REF!</f>
@@ -13383,7 +13467,7 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" si="2"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="V30">
         <f t="shared" si="8"/>
@@ -13395,7 +13479,7 @@
       </c>
       <c r="Y30" t="str">
         <f t="shared" si="3"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="Z30">
         <f t="shared" si="9"/>
@@ -13407,7 +13491,7 @@
       </c>
       <c r="AC30" t="str">
         <f t="shared" si="4"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="AD30">
         <f t="shared" si="11"/>
@@ -13419,7 +13503,7 @@
       </c>
       <c r="AG30" t="str">
         <f t="shared" si="5"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="AH30">
         <f t="shared" si="13"/>
@@ -13431,7 +13515,7 @@
       </c>
       <c r="AK30" t="str">
         <f t="shared" si="6"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="AL30">
         <f t="shared" si="15"/>
@@ -13443,7 +13527,7 @@
       </c>
       <c r="AO30" t="str">
         <f t="shared" si="7"/>
-        <v>23BME16</v>
+        <v>22BME16</v>
       </c>
       <c r="AP30">
         <f t="shared" si="17"/>
@@ -13462,7 +13546,7 @@
         <v>93</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="D31" s="85"/>
       <c r="E31" s="34">
@@ -13488,7 +13572,7 @@
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="1"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="R31" t="e">
         <f>#REF!</f>
@@ -13500,7 +13584,7 @@
       </c>
       <c r="U31" t="str">
         <f t="shared" si="2"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="V31">
         <f t="shared" si="8"/>
@@ -13512,7 +13596,7 @@
       </c>
       <c r="Y31" t="str">
         <f t="shared" si="3"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="Z31">
         <f t="shared" si="9"/>
@@ -13524,7 +13608,7 @@
       </c>
       <c r="AC31" t="str">
         <f t="shared" si="4"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="AD31">
         <f t="shared" si="11"/>
@@ -13536,7 +13620,7 @@
       </c>
       <c r="AG31" t="str">
         <f t="shared" si="5"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="AH31">
         <f t="shared" si="13"/>
@@ -13548,7 +13632,7 @@
       </c>
       <c r="AK31" t="str">
         <f t="shared" si="6"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="AL31">
         <f t="shared" si="15"/>
@@ -13560,7 +13644,7 @@
       </c>
       <c r="AO31" t="str">
         <f t="shared" si="7"/>
-        <v>23BME17</v>
+        <v>22BME17</v>
       </c>
       <c r="AP31">
         <f t="shared" si="17"/>
@@ -13579,7 +13663,7 @@
         <v>95</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="D32" s="85"/>
       <c r="E32" s="34">
@@ -13605,7 +13689,7 @@
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="1"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="R32" t="e">
         <f>#REF!</f>
@@ -13617,7 +13701,7 @@
       </c>
       <c r="U32" t="str">
         <f t="shared" si="2"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="V32">
         <f t="shared" si="8"/>
@@ -13629,7 +13713,7 @@
       </c>
       <c r="Y32" t="str">
         <f t="shared" si="3"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="Z32">
         <f t="shared" si="9"/>
@@ -13641,7 +13725,7 @@
       </c>
       <c r="AC32" t="str">
         <f t="shared" si="4"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="AD32">
         <f t="shared" si="11"/>
@@ -13653,7 +13737,7 @@
       </c>
       <c r="AG32" t="str">
         <f t="shared" si="5"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="AH32">
         <f t="shared" si="13"/>
@@ -13665,7 +13749,7 @@
       </c>
       <c r="AK32" t="str">
         <f t="shared" si="6"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="AL32">
         <f t="shared" si="15"/>
@@ -13677,7 +13761,7 @@
       </c>
       <c r="AO32" t="str">
         <f t="shared" si="7"/>
-        <v>23BME18</v>
+        <v>22BME18</v>
       </c>
       <c r="AP32">
         <f t="shared" si="17"/>
@@ -13696,7 +13780,7 @@
         <v>97</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="D33" s="85"/>
       <c r="E33" s="34">
@@ -13722,7 +13806,7 @@
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="1"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="R33" t="e">
         <f>#REF!</f>
@@ -13734,7 +13818,7 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" si="2"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="V33">
         <f t="shared" si="8"/>
@@ -13746,7 +13830,7 @@
       </c>
       <c r="Y33" t="str">
         <f t="shared" si="3"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="Z33">
         <f t="shared" si="9"/>
@@ -13758,7 +13842,7 @@
       </c>
       <c r="AC33" t="str">
         <f t="shared" si="4"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="AD33">
         <f t="shared" si="11"/>
@@ -13770,7 +13854,7 @@
       </c>
       <c r="AG33" t="str">
         <f t="shared" si="5"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="AH33">
         <f t="shared" si="13"/>
@@ -13782,7 +13866,7 @@
       </c>
       <c r="AK33" t="str">
         <f t="shared" si="6"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="AL33">
         <f t="shared" si="15"/>
@@ -13794,7 +13878,7 @@
       </c>
       <c r="AO33" t="str">
         <f t="shared" si="7"/>
-        <v>23BME19</v>
+        <v>22BME19</v>
       </c>
       <c r="AP33">
         <f t="shared" si="17"/>
@@ -13813,7 +13897,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="D34" s="85"/>
       <c r="E34" s="34">
@@ -13839,7 +13923,7 @@
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="1"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="R34" t="e">
         <f>#REF!</f>
@@ -13851,7 +13935,7 @@
       </c>
       <c r="U34" t="str">
         <f t="shared" si="2"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="V34">
         <f t="shared" si="8"/>
@@ -13863,7 +13947,7 @@
       </c>
       <c r="Y34" t="str">
         <f t="shared" si="3"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="Z34">
         <f t="shared" si="9"/>
@@ -13875,7 +13959,7 @@
       </c>
       <c r="AC34" t="str">
         <f t="shared" si="4"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="AD34">
         <f t="shared" si="11"/>
@@ -13887,7 +13971,7 @@
       </c>
       <c r="AG34" t="str">
         <f t="shared" si="5"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="AH34">
         <f t="shared" si="13"/>
@@ -13899,7 +13983,7 @@
       </c>
       <c r="AK34" t="str">
         <f t="shared" si="6"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="AL34">
         <f t="shared" si="15"/>
@@ -13911,7 +13995,7 @@
       </c>
       <c r="AO34" t="str">
         <f t="shared" si="7"/>
-        <v>23BME21</v>
+        <v>22BME21</v>
       </c>
       <c r="AP34">
         <f t="shared" si="17"/>
@@ -13930,7 +14014,7 @@
         <v>100</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="D35" s="85"/>
       <c r="E35" s="34">
@@ -13956,7 +14040,7 @@
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="1"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="R35" t="e">
         <f>#REF!</f>
@@ -13968,7 +14052,7 @@
       </c>
       <c r="U35" t="str">
         <f t="shared" si="2"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="V35">
         <f t="shared" si="8"/>
@@ -13980,7 +14064,7 @@
       </c>
       <c r="Y35" t="str">
         <f t="shared" si="3"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="Z35">
         <f t="shared" si="9"/>
@@ -13992,7 +14076,7 @@
       </c>
       <c r="AC35" t="str">
         <f t="shared" si="4"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="AD35">
         <f t="shared" si="11"/>
@@ -14004,7 +14088,7 @@
       </c>
       <c r="AG35" t="str">
         <f t="shared" si="5"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="AH35">
         <f t="shared" si="13"/>
@@ -14016,7 +14100,7 @@
       </c>
       <c r="AK35" t="str">
         <f t="shared" si="6"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="AL35">
         <f t="shared" si="15"/>
@@ -14028,7 +14112,7 @@
       </c>
       <c r="AO35" t="str">
         <f t="shared" si="7"/>
-        <v>23BME22</v>
+        <v>22BME22</v>
       </c>
       <c r="AP35">
         <f t="shared" si="17"/>
@@ -14047,7 +14131,7 @@
         <v>102</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D36" s="85"/>
       <c r="E36" s="34">
@@ -14073,7 +14157,7 @@
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="1"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="R36" t="e">
         <f>#REF!</f>
@@ -14085,7 +14169,7 @@
       </c>
       <c r="U36" t="str">
         <f t="shared" si="2"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="V36">
         <f t="shared" si="8"/>
@@ -14097,7 +14181,7 @@
       </c>
       <c r="Y36" t="str">
         <f t="shared" si="3"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="Z36">
         <f t="shared" si="9"/>
@@ -14109,7 +14193,7 @@
       </c>
       <c r="AC36" t="str">
         <f t="shared" si="4"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="AD36">
         <f t="shared" si="11"/>
@@ -14121,7 +14205,7 @@
       </c>
       <c r="AG36" t="str">
         <f t="shared" si="5"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="AH36">
         <f t="shared" si="13"/>
@@ -14133,7 +14217,7 @@
       </c>
       <c r="AK36" t="str">
         <f t="shared" si="6"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="AL36">
         <f t="shared" si="15"/>
@@ -14145,7 +14229,7 @@
       </c>
       <c r="AO36" t="str">
         <f t="shared" si="7"/>
-        <v>23BME24</v>
+        <v>22BME24</v>
       </c>
       <c r="AP36">
         <f t="shared" si="17"/>
@@ -14164,7 +14248,7 @@
         <v>104</v>
       </c>
       <c r="C37" s="98" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D37" s="85"/>
       <c r="E37" s="34">
@@ -14190,7 +14274,7 @@
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="1"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="R37" t="e">
         <f>#REF!</f>
@@ -14202,7 +14286,7 @@
       </c>
       <c r="U37" t="str">
         <f t="shared" si="2"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="V37">
         <f t="shared" si="8"/>
@@ -14214,7 +14298,7 @@
       </c>
       <c r="Y37" t="str">
         <f t="shared" si="3"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="Z37">
         <f t="shared" si="9"/>
@@ -14226,7 +14310,7 @@
       </c>
       <c r="AC37" t="str">
         <f t="shared" si="4"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="AD37">
         <f t="shared" si="11"/>
@@ -14238,7 +14322,7 @@
       </c>
       <c r="AG37" t="str">
         <f t="shared" si="5"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="AH37">
         <f t="shared" si="13"/>
@@ -14250,7 +14334,7 @@
       </c>
       <c r="AK37" t="str">
         <f t="shared" si="6"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="AL37">
         <f t="shared" si="15"/>
@@ -14262,7 +14346,7 @@
       </c>
       <c r="AO37" t="str">
         <f t="shared" si="7"/>
-        <v>23BME25</v>
+        <v>22BME25</v>
       </c>
       <c r="AP37">
         <f t="shared" si="17"/>
@@ -14281,7 +14365,7 @@
         <v>106</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D38" s="85"/>
       <c r="E38" s="34">
@@ -14307,7 +14391,7 @@
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="1"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="R38" t="e">
         <f>#REF!</f>
@@ -14319,7 +14403,7 @@
       </c>
       <c r="U38" t="str">
         <f t="shared" si="2"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="V38">
         <f t="shared" si="8"/>
@@ -14331,7 +14415,7 @@
       </c>
       <c r="Y38" t="str">
         <f t="shared" si="3"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="Z38">
         <f t="shared" si="9"/>
@@ -14343,7 +14427,7 @@
       </c>
       <c r="AC38" t="str">
         <f t="shared" si="4"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="AD38">
         <f t="shared" si="11"/>
@@ -14355,7 +14439,7 @@
       </c>
       <c r="AG38" t="str">
         <f t="shared" si="5"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="AH38">
         <f t="shared" si="13"/>
@@ -14367,7 +14451,7 @@
       </c>
       <c r="AK38" t="str">
         <f t="shared" si="6"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="AL38">
         <f t="shared" si="15"/>
@@ -14379,7 +14463,7 @@
       </c>
       <c r="AO38" t="str">
         <f t="shared" si="7"/>
-        <v>23BME26</v>
+        <v>22BME26</v>
       </c>
       <c r="AP38">
         <f t="shared" si="17"/>
@@ -14398,7 +14482,7 @@
         <v>108</v>
       </c>
       <c r="C39" s="98" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="34">
@@ -14443,7 +14527,7 @@
         <v>110</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="34">
@@ -14488,7 +14572,7 @@
         <v>112</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="34">
@@ -14533,7 +14617,7 @@
         <v>114</v>
       </c>
       <c r="C42" s="98" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="34">
@@ -14577,8 +14661,8 @@
       <c r="B43" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="101" t="s">
-        <v>117</v>
+      <c r="C43" s="98" t="s">
+        <v>152</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="34">
